--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_3_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>818737.856639936</v>
+        <v>818025.5918861912</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166956.7258165585</v>
+        <v>166956.7258165586</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
     </row>
     <row r="10">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>31.07915530583784</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8802695799879</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700845</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294978</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013692</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692367</v>
+        <v>44.32438889692364</v>
       </c>
       <c r="U11" t="n">
-        <v>58.05720677900629</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.738019759611</v>
+        <v>142.7380197596109</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.376387674824883</v>
+        <v>9.376387674824855</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423144</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050416</v>
+        <v>13.44964351050414</v>
       </c>
       <c r="T12" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="U12" t="n">
-        <v>59.08630782930758</v>
+        <v>59.08630782930755</v>
       </c>
       <c r="V12" t="n">
-        <v>94.02791377928408</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="W12" t="n">
-        <v>88.56281972747055</v>
+        <v>188.1785416903364</v>
       </c>
       <c r="X12" t="n">
-        <v>39.17115058992957</v>
+        <v>39.17115058992954</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448458</v>
+        <v>45.24252228448455</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28944752386642</v>
+        <v>25.2894475238664</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345544</v>
+        <v>57.29676508345541</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433099</v>
+        <v>45.61991340433097</v>
       </c>
       <c r="U13" t="n">
         <v>110.5147946356656</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490887</v>
+        <v>66.96725133490884</v>
       </c>
       <c r="W13" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870149</v>
+        <v>43.77769155870146</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462738</v>
+        <v>38.99950896462735</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>123.1655961457348</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294977</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013692</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>128.5392142372979</v>
       </c>
     </row>
     <row r="15">
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.376387674824883</v>
+        <v>9.37638767482494</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.16494939826</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050416</v>
+        <v>125.080651195499</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736544</v>
+        <v>36.82929343736549</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930758</v>
+        <v>59.08630782930764</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586121</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747055</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="X15" t="n">
-        <v>39.17115058992957</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448458</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386642</v>
+        <v>25.28944752386649</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345544</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433099</v>
+        <v>45.61991340433105</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356656</v>
+        <v>110.5147946356657</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490887</v>
+        <v>66.96725133490892</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870149</v>
+        <v>43.77769155870155</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462738</v>
+        <v>38.99950896462744</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256523</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591072</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E17" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7473211947453</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040499</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426079</v>
+        <v>49.57010498426087</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318269</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="18">
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>16.92832977271521</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>115.9174727980524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>7.195069383221338</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>36.20811089345166</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.3863065040498</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426079</v>
+        <v>49.57010498426081</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,16 +2448,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>166.986402055021</v>
       </c>
       <c r="V24" t="n">
-        <v>12.08453978341763</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9908827095071</v>
+        <v>157.9908827095072</v>
       </c>
       <c r="F26" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3502055971889</v>
+        <v>205.350205597189</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5340040773999</v>
+        <v>133.5340040774</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442047</v>
+        <v>27.52412960442049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754894</v>
+        <v>14.03037772754897</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335682</v>
+        <v>8.978123394335711</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945428</v>
+        <v>36.66251709945431</v>
       </c>
       <c r="V26" t="n">
         <v>107.391754257023</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.0981229813676</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.85644663908792</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777452</v>
+        <v>1.483027934777481</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671959</v>
+        <v>23.74004232671962</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327322</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21655422488257</v>
+        <v>53.2165542248826</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341585</v>
+        <v>3.824885087341613</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896597</v>
+        <v>9.896256781896625</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086746</v>
+        <v>21.95049958086749</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174301</v>
+        <v>10.27364790174304</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307764</v>
+        <v>75.16852913307767</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232088</v>
+        <v>31.62098583232091</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720631</v>
+        <v>76.82267773720633</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113509</v>
+        <v>8.431426056113537</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039399</v>
+        <v>3.653243462039427</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9908827095072</v>
+        <v>157.9908827095071</v>
       </c>
       <c r="F29" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G29" t="n">
-        <v>205.350205597189</v>
+        <v>205.3502055971889</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5340040774</v>
+        <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442049</v>
+        <v>27.52412960442048</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754897</v>
+        <v>14.03037772754895</v>
       </c>
       <c r="T29" t="n">
-        <v>8.97812339433572</v>
+        <v>8.978123394335693</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945428</v>
       </c>
       <c r="V29" t="n">
         <v>107.391754257023</v>
@@ -2874,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>98.39333304138324</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>15.86940477955029</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.48302793477748</v>
+        <v>1.483027934777453</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671962</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327325</v>
+        <v>27.16089156327322</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2165542248826</v>
+        <v>53.21655422488257</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341613</v>
+        <v>3.824885087341585</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896625</v>
+        <v>9.896256781896597</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086749</v>
+        <v>21.95049958086746</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174301</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307767</v>
+        <v>75.16852913307764</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232088</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720631</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113537</v>
+        <v>8.431426056113509</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039427</v>
+        <v>3.653243462039399</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>135.8075835698292</v>
       </c>
       <c r="D32" t="n">
-        <v>123.3742458308777</v>
+        <v>123.3742458308776</v>
       </c>
       <c r="E32" t="n">
         <v>157.0809982502865</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8013358286639</v>
+        <v>188.8013358286638</v>
       </c>
       <c r="G32" t="n">
         <v>204.4403211379683</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832835</v>
+        <v>13.12049326832832</v>
       </c>
       <c r="T32" t="n">
-        <v>8.06823893511509</v>
+        <v>8.068238935115062</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023368</v>
+        <v>35.75263264023366</v>
       </c>
       <c r="V32" t="n">
         <v>106.4818697978024</v>
       </c>
       <c r="W32" t="n">
-        <v>123.4985500144173</v>
+        <v>123.4985500144172</v>
       </c>
       <c r="X32" t="n">
         <v>145.3848004833565</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.8876536071003</v>
+        <v>167.8876536071002</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>145.9032661844784</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>30.18027020041992</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755568598</v>
+        <v>0.5731434755568322</v>
       </c>
       <c r="U33" t="n">
-        <v>22.830157867499</v>
+        <v>22.83015786749897</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405263</v>
+        <v>26.2510071040526</v>
       </c>
       <c r="W33" t="n">
-        <v>52.30666976566198</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628120993</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.986372322676004</v>
+        <v>8.986372322675976</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164687</v>
+        <v>21.04061512164684</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522421</v>
+        <v>9.363763442522394</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385705</v>
+        <v>74.25864467385702</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310029</v>
+        <v>30.71110137310026</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798571</v>
+        <v>75.91279327798568</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892916</v>
+        <v>7.521541596892888</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818806</v>
+        <v>2.743359002818778</v>
       </c>
     </row>
     <row r="35">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>140.5544772603095</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3387,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423144</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>89.47535550772061</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>124.859042605</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>168.0073830228503</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033811</v>
+        <v>9.138387495033818</v>
       </c>
       <c r="V41" t="n">
         <v>79.86762465260253</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>28.7066117301688</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>25.69242462046211</v>
       </c>
       <c r="X42" t="n">
-        <v>5.765984035692246</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>231.4197809002586</v>
+        <v>25.69242462046211</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>196.7311778862512</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4817,37 +4817,37 @@
         <v>7.244751028117094</v>
       </c>
       <c r="O8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="P8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="R8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="S8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="T8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="U8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="V8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="W8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="X8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.51508435972668</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C9" t="n">
-        <v>10.51508435972668</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D9" t="n">
-        <v>10.51508435972668</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E9" t="n">
-        <v>10.51508435972668</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F9" t="n">
-        <v>7.386136284035041</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H9" t="n">
         <v>0.2813495544899843</v>
@@ -4887,13 +4887,13 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.45619840956866</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N9" t="n">
-        <v>10.41959988319577</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="O9" t="n">
         <v>10.58577698768566</v>
@@ -4914,19 +4914,19 @@
         <v>10.51508435972668</v>
       </c>
       <c r="U9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="V9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="W9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="X9" t="n">
-        <v>10.51508435972668</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.51508435972668</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>439.5604086194664</v>
+        <v>381.5165448486865</v>
       </c>
       <c r="C11" t="n">
-        <v>439.5604086194664</v>
+        <v>207.7147938066281</v>
       </c>
       <c r="D11" t="n">
-        <v>439.5604086194664</v>
+        <v>46.4719697736117</v>
       </c>
       <c r="E11" t="n">
-        <v>439.5604086194664</v>
+        <v>46.4719697736117</v>
       </c>
       <c r="F11" t="n">
-        <v>439.5604086194664</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1704640980145</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H11" t="n">
-        <v>78.58433320913784</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I11" t="n">
         <v>15.07888360609898</v>
@@ -5042,49 +5042,49 @@
         <v>115.4202186115223</v>
       </c>
       <c r="K11" t="n">
-        <v>137.0346445173136</v>
+        <v>115.4202186115223</v>
       </c>
       <c r="L11" t="n">
-        <v>323.6358291427885</v>
+        <v>249.7644598019417</v>
       </c>
       <c r="M11" t="n">
-        <v>404.4869527561338</v>
+        <v>330.6155834152869</v>
       </c>
       <c r="N11" t="n">
-        <v>479.8038960597959</v>
+        <v>405.932526718949</v>
       </c>
       <c r="O11" t="n">
-        <v>666.4050806852708</v>
+        <v>592.5337113444239</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4050806852708</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="S11" t="n">
-        <v>687.1559797664777</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="T11" t="n">
-        <v>642.3838697695849</v>
+        <v>709.1720703080563</v>
       </c>
       <c r="U11" t="n">
-        <v>583.7402265584674</v>
+        <v>709.1720703080563</v>
       </c>
       <c r="V11" t="n">
-        <v>439.5604086194664</v>
+        <v>564.9922523690552</v>
       </c>
       <c r="W11" t="n">
-        <v>439.5604086194664</v>
+        <v>564.9922523690552</v>
       </c>
       <c r="X11" t="n">
-        <v>439.5604086194664</v>
+        <v>381.5165448486865</v>
       </c>
       <c r="Y11" t="n">
-        <v>439.5604086194664</v>
+        <v>381.5165448486865</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.55836996847877</v>
+        <v>24.54998226753823</v>
       </c>
       <c r="C12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J12" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936459</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263738</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0010596398752</v>
+        <v>753.944180304949</v>
       </c>
       <c r="R12" t="n">
-        <v>610.9183727939513</v>
+        <v>753.944180304949</v>
       </c>
       <c r="S12" t="n">
-        <v>597.3328742984926</v>
+        <v>740.3586818094902</v>
       </c>
       <c r="T12" t="n">
-        <v>406.9429297770408</v>
+        <v>549.9687372880385</v>
       </c>
       <c r="U12" t="n">
-        <v>347.259790555518</v>
+        <v>490.2855980665157</v>
       </c>
       <c r="V12" t="n">
-        <v>252.2820998693724</v>
+        <v>299.895653545064</v>
       </c>
       <c r="W12" t="n">
-        <v>162.8247062052608</v>
+        <v>109.8163185043202</v>
       </c>
       <c r="X12" t="n">
-        <v>123.2578874275541</v>
+        <v>70.24949972661354</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.55836996847877</v>
+        <v>24.54998226753823</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>15.07888360609898</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07888360609898</v>
+        <v>47.70840606894103</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07888360609898</v>
+        <v>47.70840606894103</v>
       </c>
       <c r="F13" t="n">
-        <v>53.90161642088243</v>
+        <v>86.53113888372451</v>
       </c>
       <c r="G13" t="n">
-        <v>53.90161642088243</v>
+        <v>86.53113888372451</v>
       </c>
       <c r="H13" t="n">
-        <v>53.90161642088243</v>
+        <v>98.72508667628379</v>
       </c>
       <c r="I13" t="n">
-        <v>53.90161642088243</v>
+        <v>98.72508667628379</v>
       </c>
       <c r="J13" t="n">
-        <v>53.90161642088243</v>
+        <v>156.0462752188693</v>
       </c>
       <c r="K13" t="n">
-        <v>106.3896175174385</v>
+        <v>156.0462752188693</v>
       </c>
       <c r="L13" t="n">
-        <v>250.9155731234076</v>
+        <v>158.9643740319103</v>
       </c>
       <c r="M13" t="n">
-        <v>402.3069076016767</v>
+        <v>310.3557085101794</v>
       </c>
       <c r="N13" t="n">
-        <v>402.3069076016767</v>
+        <v>470.3568865385316</v>
       </c>
       <c r="O13" t="n">
-        <v>402.3069076016767</v>
+        <v>470.3568865385316</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7701116317056</v>
+        <v>470.3568865385316</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7701116317056</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="R13" t="n">
-        <v>495.2252151429517</v>
+        <v>495.2252151429514</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566331</v>
+        <v>437.3496948566328</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461977</v>
+        <v>391.2689742461975</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6378685536061</v>
+        <v>279.637868553606</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365264</v>
+        <v>211.9941803365263</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804735</v>
+        <v>98.69221746804729</v>
       </c>
       <c r="X13" t="n">
-        <v>54.4723270047125</v>
+        <v>54.47232700471247</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609898</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.2705791696092</v>
+        <v>395.8587726490025</v>
       </c>
       <c r="C14" t="n">
-        <v>205.4688281275508</v>
+        <v>395.8587726490025</v>
       </c>
       <c r="D14" t="n">
-        <v>205.4688281275508</v>
+        <v>395.8587726490025</v>
       </c>
       <c r="E14" t="n">
-        <v>205.4688281275508</v>
+        <v>205.4688281275507</v>
       </c>
       <c r="F14" t="n">
-        <v>205.4688281275508</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G14" t="n">
         <v>15.07888360609898</v>
@@ -5276,52 +5276,52 @@
         <v>15.07888360609898</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4202186115223</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="K14" t="n">
-        <v>115.514201843227</v>
+        <v>159.9303313517421</v>
       </c>
       <c r="L14" t="n">
-        <v>162.2253601822634</v>
+        <v>346.5315159772169</v>
       </c>
       <c r="M14" t="n">
-        <v>243.0764837956088</v>
+        <v>533.1327006026918</v>
       </c>
       <c r="N14" t="n">
-        <v>318.3934270992709</v>
+        <v>719.7338852281666</v>
       </c>
       <c r="O14" t="n">
-        <v>504.9946117247458</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852708</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="S14" t="n">
-        <v>687.1559797664777</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="T14" t="n">
-        <v>687.1559797664777</v>
+        <v>709.1720703080562</v>
       </c>
       <c r="U14" t="n">
-        <v>687.1559797664777</v>
+        <v>709.1720703080562</v>
       </c>
       <c r="V14" t="n">
-        <v>687.1559797664777</v>
+        <v>709.1720703080562</v>
       </c>
       <c r="W14" t="n">
-        <v>687.1559797664777</v>
+        <v>709.1720703080562</v>
       </c>
       <c r="X14" t="n">
-        <v>503.6802722461089</v>
+        <v>525.6963627876873</v>
       </c>
       <c r="Y14" t="n">
-        <v>503.6802722461089</v>
+        <v>395.8587726490025</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>269.5292768479918</v>
+        <v>184.9776985502942</v>
       </c>
       <c r="C15" t="n">
-        <v>260.0581781865525</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="D15" t="n">
-        <v>260.0581781865525</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5279262691182</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="F15" t="n">
-        <v>123.5279262691182</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5279262691182</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5279262691182</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I15" t="n">
         <v>15.07888360609898</v>
@@ -5358,49 +5358,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K15" t="n">
-        <v>53.03690762936459</v>
+        <v>53.03690762936453</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="R15" t="n">
-        <v>617.8614934590253</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="S15" t="n">
-        <v>604.2759949635665</v>
+        <v>620.6569675232092</v>
       </c>
       <c r="T15" t="n">
-        <v>567.0746884611772</v>
+        <v>583.4556610208199</v>
       </c>
       <c r="U15" t="n">
-        <v>507.3915492396544</v>
+        <v>523.772521799297</v>
       </c>
       <c r="V15" t="n">
-        <v>444.2530067488855</v>
+        <v>460.6339793085281</v>
       </c>
       <c r="W15" t="n">
-        <v>354.7956130847738</v>
+        <v>270.2440347870763</v>
       </c>
       <c r="X15" t="n">
-        <v>315.2287943070671</v>
+        <v>230.6772160093696</v>
       </c>
       <c r="Y15" t="n">
-        <v>269.5292768479918</v>
+        <v>184.9776985502942</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.5984783588262</v>
+        <v>248.772547032069</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5984783588262</v>
+        <v>260.3402840808619</v>
       </c>
       <c r="D16" t="n">
-        <v>48.22800082166822</v>
+        <v>292.9698065437039</v>
       </c>
       <c r="E16" t="n">
-        <v>48.22800082166822</v>
+        <v>329.0707729546467</v>
       </c>
       <c r="F16" t="n">
-        <v>48.22800082166822</v>
+        <v>367.8935057694301</v>
       </c>
       <c r="G16" t="n">
-        <v>48.22800082166822</v>
+        <v>377.2400572755596</v>
       </c>
       <c r="H16" t="n">
-        <v>60.42194861422747</v>
+        <v>389.4340050681188</v>
       </c>
       <c r="I16" t="n">
-        <v>60.42194861422747</v>
+        <v>402.5890850788603</v>
       </c>
       <c r="J16" t="n">
-        <v>60.42194861422747</v>
+        <v>402.5890850788603</v>
       </c>
       <c r="K16" t="n">
-        <v>170.41941634649</v>
+        <v>402.5890850788603</v>
       </c>
       <c r="L16" t="n">
-        <v>170.41941634649</v>
+        <v>402.5890850788603</v>
       </c>
       <c r="M16" t="n">
-        <v>170.41941634649</v>
+        <v>553.9804195571294</v>
       </c>
       <c r="N16" t="n">
-        <v>212.6413222765423</v>
+        <v>553.9804195571294</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8936825085029</v>
+        <v>585.0677511817463</v>
       </c>
       <c r="P16" t="n">
-        <v>470.3568865385318</v>
+        <v>703.5309552117751</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317056</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429517</v>
+        <v>728.3992838161948</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566331</v>
+        <v>670.5237635298762</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461977</v>
+        <v>624.4430429194408</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536061</v>
+        <v>512.8119372268492</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365264</v>
+        <v>445.1682490097695</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804735</v>
+        <v>331.8662861412903</v>
       </c>
       <c r="X16" t="n">
-        <v>54.4723270047125</v>
+        <v>287.6463956779554</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07888360609898</v>
+        <v>248.2529522793418</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417485</v>
+        <v>463.3662739417496</v>
       </c>
       <c r="C17" t="n">
-        <v>410.079840673152</v>
+        <v>410.0798406731528</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135973</v>
+        <v>369.3523344135983</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879731</v>
+        <v>294.577603487974</v>
       </c>
       <c r="F17" t="n">
-        <v>187.762127533685</v>
+        <v>187.7621275336858</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151392</v>
+        <v>65.149696721514</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
@@ -5513,40 +5513,40 @@
         <v>15.07888360609898</v>
       </c>
       <c r="J17" t="n">
-        <v>107.648364831235</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K17" t="n">
-        <v>107.648364831235</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L17" t="n">
-        <v>154.3595231702714</v>
+        <v>201.6800682315738</v>
       </c>
       <c r="M17" t="n">
-        <v>235.2106467836168</v>
+        <v>282.5311918449191</v>
       </c>
       <c r="N17" t="n">
-        <v>310.5275900872789</v>
+        <v>446.2787095639108</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7378851640612</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="P17" t="n">
-        <v>344.7378851640612</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="Q17" t="n">
-        <v>531.3390697895361</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="R17" t="n">
-        <v>632.8798941893857</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="S17" t="n">
-        <v>632.8798941893857</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1158121312011</v>
+        <v>707.115812131201</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="V17" t="n">
         <v>730.2796801394097</v>
@@ -5555,10 +5555,10 @@
         <v>689.426614098502</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515949</v>
+        <v>626.466224351595</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342386</v>
+        <v>540.7756799342396</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>636.85582394328</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="C18" t="n">
-        <v>636.85582394328</v>
+        <v>367.1988408513869</v>
       </c>
       <c r="D18" t="n">
-        <v>476.0757077043118</v>
+        <v>367.1988408513869</v>
       </c>
       <c r="E18" t="n">
-        <v>302.5125038257262</v>
+        <v>193.6356369728013</v>
       </c>
       <c r="F18" t="n">
-        <v>142.0847875429703</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="G18" t="n">
-        <v>142.0847875429703</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="H18" t="n">
+        <v>176.5363139700587</v>
+      </c>
+      <c r="I18" t="n">
+        <v>68.08727130703952</v>
+      </c>
+      <c r="J18" t="n">
         <v>15.07888360609898</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15.07888360609896</v>
-      </c>
-      <c r="J18" t="n">
-        <v>15.07888360609896</v>
       </c>
       <c r="K18" t="n">
         <v>53.03690762936456</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="U18" t="n">
-        <v>753.9441803049491</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="V18" t="n">
-        <v>753.9441803049491</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="W18" t="n">
-        <v>753.9441803049491</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="X18" t="n">
-        <v>753.9441803049491</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="Y18" t="n">
-        <v>636.85582394328</v>
+        <v>556.6111151184232</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.366273941749</v>
+        <v>463.3662739417496</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731523</v>
+        <v>410.079840673153</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135978</v>
+        <v>369.3523344135983</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879741</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336854</v>
+        <v>187.762127533686</v>
       </c>
       <c r="G20" t="n">
         <v>65.14969672151395</v>
@@ -5747,55 +5747,55 @@
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993046</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5554400254053</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K20" t="n">
-        <v>294.2495494567099</v>
+        <v>154.476733004983</v>
       </c>
       <c r="L20" t="n">
-        <v>340.9607077957463</v>
+        <v>201.1878913440194</v>
       </c>
       <c r="M20" t="n">
-        <v>421.8118314090917</v>
+        <v>282.0390149573647</v>
       </c>
       <c r="N20" t="n">
-        <v>497.1287747127538</v>
+        <v>357.3559582610268</v>
       </c>
       <c r="O20" t="n">
-        <v>531.3390697895361</v>
+        <v>391.566253337809</v>
       </c>
       <c r="P20" t="n">
-        <v>531.3390697895361</v>
+        <v>391.566253337809</v>
       </c>
       <c r="Q20" t="n">
-        <v>531.3390697895361</v>
+        <v>578.1674379632839</v>
       </c>
       <c r="R20" t="n">
-        <v>632.8798941893857</v>
+        <v>679.7082623631335</v>
       </c>
       <c r="S20" t="n">
-        <v>632.8798941893857</v>
+        <v>679.7082623631335</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1158121312011</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394094</v>
+        <v>730.2796801394095</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985013</v>
+        <v>689.4266140985018</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515944</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342391</v>
+        <v>540.7756799342395</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>538.834477990689</v>
+        <v>182.7743467405936</v>
       </c>
       <c r="C21" t="n">
-        <v>349.4222037236527</v>
+        <v>182.7743467405936</v>
       </c>
       <c r="D21" t="n">
-        <v>188.6420874846845</v>
+        <v>182.7743467405936</v>
       </c>
       <c r="E21" t="n">
-        <v>15.07888360609898</v>
+        <v>182.7743467405936</v>
       </c>
       <c r="F21" t="n">
-        <v>15.07888360609898</v>
+        <v>22.3466304578377</v>
       </c>
       <c r="G21" t="n">
         <v>15.07888360609898</v>
@@ -5832,49 +5832,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936455</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M21" t="n">
         <v>352.0310247576277</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="S21" t="n">
-        <v>717.3703309176242</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="T21" t="n">
-        <v>717.3703309176242</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="U21" t="n">
-        <v>717.3703309176242</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="V21" t="n">
-        <v>717.3703309176242</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="W21" t="n">
-        <v>717.3703309176242</v>
+        <v>563.5542357834971</v>
       </c>
       <c r="X21" t="n">
-        <v>717.3703309176242</v>
+        <v>373.1642912620454</v>
       </c>
       <c r="Y21" t="n">
-        <v>717.3703309176242</v>
+        <v>182.7743467405936</v>
       </c>
     </row>
     <row r="22">
@@ -5966,70 +5966,70 @@
         <v>463.366273941749</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731523</v>
+        <v>410.0798406731524</v>
       </c>
       <c r="D23" t="n">
         <v>369.3523344135978</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879735</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336857</v>
+        <v>187.7621275336854</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151392</v>
+        <v>65.14969672151393</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I23" t="n">
-        <v>38.41417867930073</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J23" t="n">
-        <v>225.0153633047756</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K23" t="n">
-        <v>225.0153633047756</v>
+        <v>201.6800682315738</v>
       </c>
       <c r="L23" t="n">
-        <v>271.7265216438121</v>
+        <v>388.2812528570486</v>
       </c>
       <c r="M23" t="n">
-        <v>352.5776452571574</v>
+        <v>469.1323764703939</v>
       </c>
       <c r="N23" t="n">
-        <v>427.8945885608196</v>
+        <v>655.7335610958687</v>
       </c>
       <c r="O23" t="n">
-        <v>462.1048836376019</v>
+        <v>689.943856172651</v>
       </c>
       <c r="P23" t="n">
-        <v>462.1048836376019</v>
+        <v>689.943856172651</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1048836376019</v>
+        <v>689.943856172651</v>
       </c>
       <c r="R23" t="n">
-        <v>563.6457080374514</v>
+        <v>689.943856172651</v>
       </c>
       <c r="S23" t="n">
-        <v>632.8798941893857</v>
+        <v>689.943856172651</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1158121312011</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="V23" t="n">
         <v>730.2796801394094</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985013</v>
+        <v>689.4266140985017</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515944</v>
+        <v>626.4662243515946</v>
       </c>
       <c r="Y23" t="n">
         <v>540.7756799342391</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>741.7375744631131</v>
+        <v>204.4911578731353</v>
       </c>
       <c r="C24" t="n">
-        <v>552.3253001960768</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D24" t="n">
-        <v>552.3253001960768</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E24" t="n">
-        <v>378.7620963174913</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F24" t="n">
-        <v>218.3343800347354</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G24" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H24" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I24" t="n">
-        <v>68.0872713070395</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936459</v>
+        <v>53.03690762936455</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831025</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9441803049491</v>
+        <v>563.554235783497</v>
       </c>
       <c r="U24" t="n">
-        <v>753.9441803049491</v>
+        <v>394.8811023945869</v>
       </c>
       <c r="V24" t="n">
-        <v>741.7375744631131</v>
+        <v>394.8811023945869</v>
       </c>
       <c r="W24" t="n">
-        <v>741.7375744631131</v>
+        <v>204.4911578731353</v>
       </c>
       <c r="X24" t="n">
-        <v>741.7375744631131</v>
+        <v>204.4911578731353</v>
       </c>
       <c r="Y24" t="n">
-        <v>741.7375744631131</v>
+        <v>204.4911578731353</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.877441161907</v>
+        <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.778988607311</v>
+        <v>882.7789886073105</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617572</v>
+        <v>757.2394630617566</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501339</v>
+        <v>597.6527128501332</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098465</v>
+        <v>406.0252176098458</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116759</v>
+        <v>198.600767511675</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026181</v>
+        <v>63.7179351102609</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2499218476702</v>
+        <v>171.2499218476703</v>
       </c>
       <c r="K26" t="n">
         <v>375.9353445940058</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916499</v>
+        <v>633.9996519916497</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636031</v>
+        <v>926.2039246636027</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.874017025873</v>
+        <v>1212.874017025872</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161263</v>
+        <v>1458.437461161262</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.84073296935</v>
+        <v>1654.840732969349</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.37263543659</v>
@@ -6260,7 +6260,7 @@
         <v>1735.515443955102</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503564</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W26" t="n">
         <v>1501.373839176656</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>672.5494056769691</v>
+        <v>196.6959002336529</v>
       </c>
       <c r="C27" t="n">
-        <v>483.1371314099327</v>
+        <v>196.6959002336529</v>
       </c>
       <c r="D27" t="n">
-        <v>483.1371314099327</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E27" t="n">
-        <v>309.5739275313472</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F27" t="n">
-        <v>149.1462112485913</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G27" t="n">
-        <v>149.1462112485913</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K27" t="n">
-        <v>73.87380801795025</v>
+        <v>73.87380801795021</v>
       </c>
       <c r="L27" t="n">
-        <v>191.1995979629473</v>
+        <v>191.1995979629472</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8679251462135</v>
+        <v>372.8679251462133</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7643619459217</v>
+        <v>577.7643619459216</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4574894891929</v>
+        <v>709.4574894891928</v>
       </c>
       <c r="P27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="R27" t="n">
-        <v>793.0763328677681</v>
+        <v>711.4031544444467</v>
       </c>
       <c r="S27" t="n">
-        <v>793.0763328677681</v>
+        <v>711.4031544444467</v>
       </c>
       <c r="T27" t="n">
-        <v>791.5783248528413</v>
+        <v>709.90514642952</v>
       </c>
       <c r="U27" t="n">
-        <v>767.5984841187811</v>
+        <v>685.9253056954598</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1632401154749</v>
+        <v>442.8455875990938</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4091449388258</v>
+        <v>389.0914924224447</v>
       </c>
       <c r="X27" t="n">
-        <v>682.5456246485818</v>
+        <v>385.2279721322007</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5494056769691</v>
+        <v>375.231753160588</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D28" t="n">
-        <v>103.5381093050888</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E28" t="n">
-        <v>174.6318785635938</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F28" t="n">
-        <v>248.4474142259393</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G28" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H28" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I28" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J28" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K28" t="n">
-        <v>266.139026119299</v>
+        <v>86.62026766576804</v>
       </c>
       <c r="L28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="M28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="N28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="O28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="P28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="R28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="S28" t="n">
-        <v>243.966804320443</v>
+        <v>243.9668043204432</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974702</v>
+        <v>233.5893821974704</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923413</v>
+        <v>157.6615749923414</v>
       </c>
       <c r="V28" t="n">
         <v>125.7211852627243</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170779</v>
+        <v>48.12252088170784</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583555</v>
+        <v>39.60592890583558</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073103</v>
+        <v>882.7789886073102</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617565</v>
+        <v>757.2394630617564</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501331</v>
+        <v>597.652712850133</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098457</v>
+        <v>406.0252176098456</v>
       </c>
       <c r="G29" t="n">
         <v>198.600767511675</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026091</v>
+        <v>63.71793511026087</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="J29" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476698</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940054</v>
+        <v>375.935344594005</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916496</v>
+        <v>633.9996519916491</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636026</v>
+        <v>926.2039246636023</v>
       </c>
       <c r="N29" t="n">
         <v>1212.874017025872</v>
@@ -6479,13 +6479,13 @@
         <v>1458.437461161262</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.84073296935</v>
+        <v>1654.840732969349</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.37263543659</v>
+        <v>1777.372635436589</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.789199734232</v>
+        <v>1795.789199734231</v>
       </c>
       <c r="S29" t="n">
         <v>1781.617101019536</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>672.5494056769688</v>
+        <v>320.8222447379853</v>
       </c>
       <c r="C30" t="n">
-        <v>672.5494056769688</v>
+        <v>320.8222447379853</v>
       </c>
       <c r="D30" t="n">
-        <v>573.1622005846625</v>
+        <v>320.8222447379853</v>
       </c>
       <c r="E30" t="n">
-        <v>399.5989967060769</v>
+        <v>320.8222447379853</v>
       </c>
       <c r="F30" t="n">
-        <v>239.171280423321</v>
+        <v>160.3945284552294</v>
       </c>
       <c r="G30" t="n">
-        <v>88.92417169562516</v>
+        <v>160.3945284552294</v>
       </c>
       <c r="H30" t="n">
-        <v>88.92417169562516</v>
+        <v>144.3648266577038</v>
       </c>
       <c r="I30" t="n">
-        <v>88.92417169562516</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="K30" t="n">
-        <v>73.87380801795024</v>
+        <v>73.87380801795021</v>
       </c>
       <c r="L30" t="n">
-        <v>191.1995979629473</v>
+        <v>191.1995979629472</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462135</v>
+        <v>372.8679251462133</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7643619459217</v>
+        <v>577.7643619459216</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4574894891929</v>
+        <v>709.4574894891928</v>
       </c>
       <c r="P30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="R30" t="n">
-        <v>793.0763328677681</v>
+        <v>656.993646021844</v>
       </c>
       <c r="S30" t="n">
-        <v>793.0763328677681</v>
+        <v>656.993646021844</v>
       </c>
       <c r="T30" t="n">
-        <v>791.5783248528413</v>
+        <v>655.4956380069173</v>
       </c>
       <c r="U30" t="n">
-        <v>767.5984841187811</v>
+        <v>415.8713231797974</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1632401154748</v>
+        <v>388.4360791764911</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4091449388256</v>
+        <v>334.681983999842</v>
       </c>
       <c r="X30" t="n">
-        <v>682.5456246485816</v>
+        <v>330.818463709598</v>
       </c>
       <c r="Y30" t="n">
-        <v>672.5494056769688</v>
+        <v>320.8222447379853</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="E31" t="n">
-        <v>107.0095532531896</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="F31" t="n">
-        <v>107.0095532531896</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="G31" t="n">
-        <v>151.3489076068813</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3489076068813</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="I31" t="n">
-        <v>199.4967904651849</v>
+        <v>35.91578399468463</v>
       </c>
       <c r="J31" t="n">
-        <v>199.4967904651849</v>
+        <v>79.75488879346781</v>
       </c>
       <c r="K31" t="n">
-        <v>199.4967904651849</v>
+        <v>79.75488879346781</v>
       </c>
       <c r="L31" t="n">
-        <v>199.4967904651849</v>
+        <v>79.75488879346781</v>
       </c>
       <c r="M31" t="n">
-        <v>199.4967904651849</v>
+        <v>266.139026119299</v>
       </c>
       <c r="N31" t="n">
-        <v>256.1827763203649</v>
+        <v>266.139026119299</v>
       </c>
       <c r="O31" t="n">
-        <v>256.1827763203649</v>
+        <v>266.139026119299</v>
       </c>
       <c r="P31" t="n">
-        <v>256.1827763203649</v>
+        <v>266.139026119299</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.1827763203649</v>
+        <v>266.139026119299</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192992</v>
+        <v>266.139026119299</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204432</v>
+        <v>243.966804320443</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974702</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923414</v>
+        <v>157.6615749923413</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627243</v>
+        <v>125.7211852627242</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170784</v>
+        <v>48.12252088170777</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583558</v>
+        <v>39.60592890583554</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468463</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>1014.162565128078</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848166</v>
+        <v>876.983187784816</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505967</v>
+        <v>752.3627374505961</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503072</v>
+        <v>593.6950624503068</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213538</v>
+        <v>402.9866424213532</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345171</v>
+        <v>196.4812675345165</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443695</v>
+        <v>62.51751034443694</v>
       </c>
       <c r="I32" t="n">
         <v>35.63443444019465</v>
       </c>
       <c r="J32" t="n">
-        <v>149.9761592061436</v>
+        <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
-        <v>355.5623675671075</v>
+        <v>377.4555662687723</v>
       </c>
       <c r="L32" t="n">
-        <v>614.5274605793801</v>
+        <v>636.4206592810448</v>
       </c>
       <c r="M32" t="n">
-        <v>907.6325188659615</v>
+        <v>907.6325188659614</v>
       </c>
       <c r="N32" t="n">
         <v>1195.20339684286</v>
@@ -6716,13 +6716,13 @@
         <v>1441.667626592878</v>
       </c>
       <c r="P32" t="n">
-        <v>1638.971684015594</v>
+        <v>1638.971684015593</v>
       </c>
       <c r="Q32" t="n">
         <v>1762.404372097462</v>
       </c>
       <c r="R32" t="n">
-        <v>1781.721722009733</v>
+        <v>1781.721722009732</v>
       </c>
       <c r="S32" t="n">
         <v>1768.46869850637</v>
@@ -6731,7 +6731,7 @@
         <v>1760.318962208274</v>
       </c>
       <c r="U32" t="n">
-        <v>1724.205191864604</v>
+        <v>1724.205191864603</v>
       </c>
       <c r="V32" t="n">
         <v>1616.647747624399</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.7825073904826</v>
+        <v>66.11955585476022</v>
       </c>
       <c r="C33" t="n">
-        <v>530.4054708405043</v>
+        <v>66.11955585476022</v>
       </c>
       <c r="D33" t="n">
-        <v>369.6253546015361</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0621507229505</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F33" t="n">
         <v>35.63443444019465</v>
@@ -6780,49 +6780,49 @@
         <v>35.63443444019465</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59245846346026</v>
+        <v>73.59245846346022</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9182484084573</v>
+        <v>190.9182484084572</v>
       </c>
       <c r="M33" t="n">
-        <v>372.5865755917235</v>
+        <v>372.5865755917233</v>
       </c>
       <c r="N33" t="n">
-        <v>577.4830123914317</v>
+        <v>577.4830123914314</v>
       </c>
       <c r="O33" t="n">
-        <v>709.1761399347029</v>
+        <v>709.1761399347026</v>
       </c>
       <c r="P33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="R33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="S33" t="n">
-        <v>792.7949833132781</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="T33" t="n">
-        <v>792.2160505096853</v>
+        <v>792.2160505096849</v>
       </c>
       <c r="U33" t="n">
-        <v>769.155284986959</v>
+        <v>769.1552849869587</v>
       </c>
       <c r="V33" t="n">
-        <v>742.6391161949866</v>
+        <v>742.6391161949864</v>
       </c>
       <c r="W33" t="n">
-        <v>689.8040962296715</v>
+        <v>473.2405469252777</v>
       </c>
       <c r="X33" t="n">
-        <v>686.8596511507614</v>
+        <v>253.7325525419741</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.7825073904826</v>
+        <v>244.6554087816953</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.04761765511236</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="C34" t="n">
-        <v>112.7132739353642</v>
+        <v>83.09575995117817</v>
       </c>
       <c r="D34" t="n">
-        <v>112.7132739353642</v>
+        <v>151.6188708762107</v>
       </c>
       <c r="E34" t="n">
-        <v>184.7078288084976</v>
+        <v>223.6134257493441</v>
       </c>
       <c r="F34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="G34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="H34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="I34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="J34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="K34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="L34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979494</v>
+        <v>238.1710034979492</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863106</v>
+        <v>228.7126565863105</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925156</v>
+        <v>153.7039245925155</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742325</v>
+        <v>122.6826100742324</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090454993</v>
+        <v>46.00302090454986</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001163</v>
+        <v>38.40550414001159</v>
       </c>
       <c r="Y34" t="n">
         <v>35.63443444019465</v>
@@ -6932,40 +6932,40 @@
         <v>20.83690038858565</v>
       </c>
       <c r="I35" t="n">
-        <v>44.34255870118338</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J35" t="n">
-        <v>237.6620311857179</v>
+        <v>214.1563728731201</v>
       </c>
       <c r="K35" t="n">
-        <v>495.5186734944654</v>
+        <v>278.6047417687415</v>
       </c>
       <c r="L35" t="n">
-        <v>753.3753158032129</v>
+        <v>325.3159001077779</v>
       </c>
       <c r="M35" t="n">
-        <v>834.2264394165582</v>
+        <v>583.1725424165254</v>
       </c>
       <c r="N35" t="n">
-        <v>909.5433827202203</v>
+        <v>658.4894857201875</v>
       </c>
       <c r="O35" t="n">
-        <v>943.7536777970025</v>
+        <v>916.346128028935</v>
       </c>
       <c r="P35" t="n">
-        <v>943.7536777970025</v>
+        <v>916.346128028935</v>
       </c>
       <c r="Q35" t="n">
-        <v>943.7536777970025</v>
+        <v>916.346128028935</v>
       </c>
       <c r="R35" t="n">
-        <v>1020.155576726193</v>
+        <v>992.7480269581259</v>
       </c>
       <c r="S35" t="n">
-        <v>1020.155576726193</v>
+        <v>992.7480269581259</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.155576726193</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>544.5924947731758</v>
+        <v>162.8111198434438</v>
       </c>
       <c r="C36" t="n">
-        <v>355.1802205061394</v>
+        <v>162.8111198434438</v>
       </c>
       <c r="D36" t="n">
-        <v>194.4001042671712</v>
+        <v>162.8111198434438</v>
       </c>
       <c r="E36" t="n">
         <v>20.83690038858565</v>
@@ -7017,49 +7017,49 @@
         <v>20.83690038858565</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185126</v>
+        <v>58.79492441185123</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1207143568483</v>
+        <v>176.1207143568482</v>
       </c>
       <c r="M36" t="n">
-        <v>357.7890415401145</v>
+        <v>357.7890415401143</v>
       </c>
       <c r="N36" t="n">
-        <v>562.6854783398227</v>
+        <v>562.6854783398226</v>
       </c>
       <c r="O36" t="n">
-        <v>694.3786058830939</v>
+        <v>694.3786058830938</v>
       </c>
       <c r="P36" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.0543285965952</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="R36" t="n">
-        <v>634.9716417506713</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="S36" t="n">
-        <v>634.9716417506713</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="T36" t="n">
-        <v>634.9716417506713</v>
+        <v>560.8549671536825</v>
       </c>
       <c r="U36" t="n">
-        <v>634.9716417506713</v>
+        <v>560.8549671536825</v>
       </c>
       <c r="V36" t="n">
-        <v>634.9716417506713</v>
+        <v>560.8549671536825</v>
       </c>
       <c r="W36" t="n">
-        <v>544.5924947731758</v>
+        <v>560.8549671536825</v>
       </c>
       <c r="X36" t="n">
-        <v>544.5924947731758</v>
+        <v>341.3469727703789</v>
       </c>
       <c r="Y36" t="n">
-        <v>544.5924947731758</v>
+        <v>341.3469727703789</v>
       </c>
     </row>
     <row r="37">
@@ -7099,25 +7099,25 @@
         <v>20.83690038858565</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="S37" t="n">
         <v>56.03802837397788</v>
@@ -7169,40 +7169,40 @@
         <v>20.83690038858565</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83690038858565</v>
+        <v>51.57334671175848</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1563728731201</v>
+        <v>244.8928191962929</v>
       </c>
       <c r="K38" t="n">
-        <v>472.0130151818677</v>
+        <v>244.8928191962929</v>
       </c>
       <c r="L38" t="n">
-        <v>729.8696574906152</v>
+        <v>502.7494615050404</v>
       </c>
       <c r="M38" t="n">
-        <v>810.7207811039605</v>
+        <v>583.6005851183857</v>
       </c>
       <c r="N38" t="n">
-        <v>886.0377244076226</v>
+        <v>658.9175284220478</v>
       </c>
       <c r="O38" t="n">
-        <v>965.4431205000918</v>
+        <v>693.12782349883</v>
       </c>
       <c r="P38" t="n">
-        <v>965.4431205000918</v>
+        <v>693.12782349883</v>
       </c>
       <c r="Q38" t="n">
-        <v>965.4431205000918</v>
+        <v>873.6450605976195</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.845019429283</v>
+        <v>950.0469595268104</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550366</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.845019429283</v>
+        <v>1020.155576726193</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>210.2491746556219</v>
+        <v>336.3694197111775</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83690038858565</v>
+        <v>146.9571454441412</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858565</v>
+        <v>146.9571454441412</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858565</v>
+        <v>146.9571454441412</v>
       </c>
       <c r="F39" t="n">
         <v>20.83690038858565</v>
@@ -7254,49 +7254,49 @@
         <v>20.83690038858565</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185126</v>
+        <v>58.79492441185123</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1207143568483</v>
+        <v>176.1207143568482</v>
       </c>
       <c r="M39" t="n">
-        <v>357.7890415401145</v>
+        <v>357.7890415401143</v>
       </c>
       <c r="N39" t="n">
-        <v>562.6854783398227</v>
+        <v>562.6854783398226</v>
       </c>
       <c r="O39" t="n">
-        <v>694.3786058830939</v>
+        <v>694.3786058830938</v>
       </c>
       <c r="P39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="Q39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="R39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="S39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="T39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="U39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="V39" t="n">
-        <v>608.2930219658607</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="W39" t="n">
-        <v>608.2930219658607</v>
+        <v>514.9052726381126</v>
       </c>
       <c r="X39" t="n">
-        <v>388.7850275825571</v>
+        <v>514.9052726381126</v>
       </c>
       <c r="Y39" t="n">
-        <v>388.7850275825571</v>
+        <v>514.9052726381126</v>
       </c>
     </row>
     <row r="40">
@@ -7315,25 +7315,25 @@
         <v>20.83690038858565</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="L40" t="n">
         <v>56.03802837397788</v>
@@ -7415,16 +7415,16 @@
         <v>422.5827360122556</v>
       </c>
       <c r="L41" t="n">
-        <v>469.2938943512921</v>
+        <v>523.4717764441533</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3229000574984</v>
+        <v>604.3229000574986</v>
       </c>
       <c r="N41" t="n">
-        <v>918.2418807281446</v>
+        <v>679.6398433611607</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4521758049268</v>
+        <v>952.4521758049269</v>
       </c>
       <c r="P41" t="n">
         <v>1176.10433592139</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>349.2732313179064</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C42" t="n">
-        <v>349.2732313179064</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4931150789382</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4931150789382</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F42" t="n">
         <v>28.06539879618224</v>
@@ -7491,49 +7491,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02342281944784</v>
+        <v>66.0234228194478</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3492127644449</v>
+        <v>183.3492127644448</v>
       </c>
       <c r="M42" t="n">
-        <v>365.017539947711</v>
+        <v>365.0175399477109</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9139767474193</v>
+        <v>569.9139767474192</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6071042906905</v>
+        <v>701.6071042906904</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2259476692657</v>
+        <v>756.2293701640444</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2259476692657</v>
+        <v>756.2293701640444</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2259476692657</v>
+        <v>756.2293701640444</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2259476692657</v>
+        <v>516.6050553369246</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2259476692657</v>
+        <v>273.5253372405587</v>
       </c>
       <c r="W42" t="n">
-        <v>759.2740036081929</v>
+        <v>247.5733931794859</v>
       </c>
       <c r="X42" t="n">
-        <v>753.4497773095138</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y42" t="n">
-        <v>527.8090842448414</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="43">
@@ -7567,25 +7567,25 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.125806765216</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.125806765216</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.125806765216</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.125806765216</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.125806765216</v>
       </c>
       <c r="O43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.125806765216</v>
       </c>
       <c r="P43" t="n">
-        <v>28.06539879618224</v>
+        <v>130.125806765216</v>
       </c>
       <c r="Q43" t="n">
         <v>130.125806765216</v>
@@ -7652,19 +7652,19 @@
         <v>422.5827360122556</v>
       </c>
       <c r="L44" t="n">
-        <v>469.2938943512921</v>
+        <v>707.895931718276</v>
       </c>
       <c r="M44" t="n">
-        <v>604.3229000574984</v>
+        <v>1027.349092698605</v>
       </c>
       <c r="N44" t="n">
-        <v>918.2418807281446</v>
+        <v>1102.666036002267</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4521758049268</v>
+        <v>1136.87633107905</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.10433592139</v>
+        <v>1325.885126697007</v>
       </c>
       <c r="Q44" t="n">
         <v>1325.885126697007</v>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>551.46859322456</v>
+        <v>188.4931150789382</v>
       </c>
       <c r="C45" t="n">
-        <v>362.0563189575237</v>
+        <v>188.4931150789382</v>
       </c>
       <c r="D45" t="n">
-        <v>362.0563189575237</v>
+        <v>188.4931150789382</v>
       </c>
       <c r="E45" t="n">
         <v>188.4931150789382</v>
@@ -7752,25 +7752,25 @@
         <v>785.2259476692657</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2259476692657</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2259476692657</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2259476692657</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2259476692657</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="W45" t="n">
-        <v>551.46859322456</v>
+        <v>565.7473295071371</v>
       </c>
       <c r="X45" t="n">
-        <v>551.46859322456</v>
+        <v>367.0289680058733</v>
       </c>
       <c r="Y45" t="n">
-        <v>551.46859322456</v>
+        <v>367.0289680058733</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C46" t="n">
-        <v>109.7284612176717</v>
+        <v>31.78314919833478</v>
       </c>
       <c r="D46" t="n">
-        <v>109.7284612176717</v>
+        <v>31.78314919833478</v>
       </c>
       <c r="E46" t="n">
         <v>130.125806765216</v>
@@ -7846,10 +7846,10 @@
         <v>28.06539879618224</v>
       </c>
       <c r="X46" t="n">
-        <v>46.96717530900612</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.96717530900612</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
   </sheetData>
@@ -8535,16 +8535,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
         <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>174.1352738833231</v>
+        <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
         <v>166.9656464766077</v>
@@ -23258,25 +23258,25 @@
         <v>195.9454765282923</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926862</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>193.3371482120951</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0574857904724</v>
+        <v>193.9783304846346</v>
       </c>
       <c r="G11" t="n">
-        <v>52.21042602353967</v>
+        <v>240.6964710997769</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.87039510700843</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294976</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.3766432301369</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>13.95157582303597</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>159.7546999762258</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1438035689089</v>
+        <v>204.1438035689088</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.77988038255751</v>
+        <v>195.9454765282923</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926862</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120951</v>
+        <v>4.851103135857954</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0574857904724</v>
+        <v>36.57144071423528</v>
       </c>
       <c r="G14" t="n">
-        <v>52.21042602353967</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8802695799879</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700845</v>
+        <v>62.87039510700852</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.7436753029499</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692367</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204226</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V14" t="n">
         <v>142.738019759611</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1438035689089</v>
+        <v>75.60458933161098</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872095.2597139933</v>
+        <v>872095.2597139934</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>872095.2597139935</v>
+        <v>872095.2597139932</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852874</v>
+        <v>551207.4969852873</v>
       </c>
       <c r="C2" t="n">
         <v>551207.4969852873</v>
       </c>
       <c r="D2" t="n">
-        <v>551541.6239090763</v>
+        <v>551541.6239090764</v>
       </c>
       <c r="E2" t="n">
         <v>474826.7421759047</v>
       </c>
       <c r="F2" t="n">
-        <v>474826.7421759047</v>
+        <v>474826.7421759049</v>
       </c>
       <c r="G2" t="n">
+        <v>552324.0930365855</v>
+      </c>
+      <c r="H2" t="n">
+        <v>552324.0930365856</v>
+      </c>
+      <c r="I2" t="n">
+        <v>552324.0930365847</v>
+      </c>
+      <c r="J2" t="n">
+        <v>552324.0930365854</v>
+      </c>
+      <c r="K2" t="n">
+        <v>552324.0930365851</v>
+      </c>
+      <c r="L2" t="n">
         <v>552324.0930365848</v>
       </c>
-      <c r="H2" t="n">
-        <v>552324.0930365849</v>
-      </c>
-      <c r="I2" t="n">
-        <v>552324.0930365855</v>
-      </c>
-      <c r="J2" t="n">
-        <v>552324.0930365857</v>
-      </c>
-      <c r="K2" t="n">
-        <v>552324.0930365849</v>
-      </c>
-      <c r="L2" t="n">
-        <v>552324.093036585</v>
-      </c>
       <c r="M2" t="n">
-        <v>552324.0930365851</v>
+        <v>552324.0930365853</v>
       </c>
       <c r="N2" t="n">
-        <v>552324.0930365851</v>
+        <v>552324.0930365856</v>
       </c>
       <c r="O2" t="n">
-        <v>552324.093036585</v>
+        <v>552324.0930365853</v>
       </c>
       <c r="P2" t="n">
-        <v>552324.0930365853</v>
+        <v>552324.0930365854</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>95448.13167658169</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>96176.03924395819</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852178</v>
+        <v>46128.9284985218</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>398503.1168259752</v>
       </c>
       <c r="D4" t="n">
-        <v>398252.7501242604</v>
+        <v>398252.7501242605</v>
       </c>
       <c r="E4" t="n">
+        <v>284611.9180572358</v>
+      </c>
+      <c r="F4" t="n">
         <v>284611.9180572357</v>
-      </c>
-      <c r="F4" t="n">
-        <v>284611.9180572358</v>
       </c>
       <c r="G4" t="n">
         <v>355226.9843620399</v>
       </c>
       <c r="H4" t="n">
-        <v>355226.9843620398</v>
+        <v>355226.9843620399</v>
       </c>
       <c r="I4" t="n">
         <v>355226.9843620399</v>
@@ -26448,7 +26448,7 @@
         <v>355959.6807885086</v>
       </c>
       <c r="M4" t="n">
-        <v>355151.2670307197</v>
+        <v>355151.2670307198</v>
       </c>
       <c r="N4" t="n">
         <v>355151.2670307197</v>
@@ -26479,34 +26479,34 @@
         <v>28641.35152034391</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.35152034391</v>
+        <v>28641.3515203439</v>
       </c>
       <c r="G5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="H5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="J5" t="n">
-        <v>47448.92101020608</v>
+        <v>47448.92101020607</v>
       </c>
       <c r="K5" t="n">
-        <v>47448.92101020608</v>
+        <v>47448.92101020607</v>
       </c>
       <c r="L5" t="n">
         <v>47311.58842539589</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860084</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860084</v>
       </c>
       <c r="O5" t="n">
-        <v>43796.55431105828</v>
+        <v>43796.55431105827</v>
       </c>
       <c r="P5" t="n">
         <v>43796.55431105828</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119076.7801593122</v>
+        <v>119072.3137751069</v>
       </c>
       <c r="C6" t="n">
-        <v>119076.780159312</v>
+        <v>119072.3137751068</v>
       </c>
       <c r="D6" t="n">
-        <v>118355.0029720132</v>
+        <v>118351.8730955033</v>
       </c>
       <c r="E6" t="n">
-        <v>-117436.6706690548</v>
+        <v>-117746.6600724974</v>
       </c>
       <c r="F6" t="n">
-        <v>161573.472598325</v>
+        <v>161263.4831948825</v>
       </c>
       <c r="G6" t="n">
-        <v>62977.33925022112</v>
+        <v>62977.33925022183</v>
       </c>
       <c r="H6" t="n">
-        <v>158425.470926803</v>
+        <v>158425.4709268036</v>
       </c>
       <c r="I6" t="n">
-        <v>158425.4709268035</v>
+        <v>158425.4709268027</v>
       </c>
       <c r="J6" t="n">
-        <v>5408.816559440602</v>
+        <v>5408.81655944026</v>
       </c>
       <c r="K6" t="n">
-        <v>148899.2329304501</v>
+        <v>148899.2329304504</v>
       </c>
       <c r="L6" t="n">
-        <v>52876.78457872238</v>
+        <v>52876.78457872209</v>
       </c>
       <c r="M6" t="n">
         <v>110130.9188487428</v>
       </c>
       <c r="N6" t="n">
-        <v>156259.8473472646</v>
+        <v>156259.8473472651</v>
       </c>
       <c r="O6" t="n">
-        <v>80740.16581600436</v>
+        <v>80740.16581600459</v>
       </c>
       <c r="P6" t="n">
-        <v>152989.2423673458</v>
+        <v>152989.2423673459</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H2" t="n">
         <v>297.4519284452682</v>
@@ -26744,37 +26744,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="P3" t="n">
         <v>101.1559648918172</v>
@@ -26796,22 +26796,22 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="J4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335579</v>
       </c>
       <c r="K4" t="n">
         <v>448.9472999335579</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>119.3101645957271</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>120.2200490549477</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315223</v>
+        <v>57.66116062315226</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>184.9691756451125</v>
+        <v>184.9691756451124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>119.3101645957271</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="M4" t="n">
-        <v>184.9691756451125</v>
+        <v>184.9691756451124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27889,7 +27889,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>33.96130047619883</v>
+        <v>33.78365208844627</v>
       </c>
       <c r="P8" t="n">
         <v>73.5786919263081</v>
@@ -27941,13 +27941,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>155.7257805249936</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>145.445348963967</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>124.320347491772</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
@@ -27986,10 +27986,10 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>233.7255167710576</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>237.1320514842774</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -27998,7 +27998,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>220.2866275390909</v>
       </c>
     </row>
     <row r="10">
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K11" t="n">
-        <v>28.56783052329645</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3030568549883</v>
+        <v>88.51826550644748</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>153.9301914633259</v>
       </c>
       <c r="P11" t="n">
-        <v>15.10088611163702</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T12" t="n">
-        <v>26.4850122106692</v>
+        <v>26.48501221066925</v>
       </c>
       <c r="U12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V12" t="n">
-        <v>146.6210071361182</v>
+        <v>52.16287583916503</v>
       </c>
       <c r="W12" t="n">
-        <v>178.141763849541</v>
+        <v>78.52604188667522</v>
       </c>
       <c r="X12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="13">
@@ -28251,70 +28251,70 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G13" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H13" t="n">
-        <v>165.824644867158</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I13" t="n">
         <v>164.8538042427314</v>
       </c>
       <c r="J13" t="n">
-        <v>120.241573402485</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K13" t="n">
-        <v>120.0513935104436</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L13" t="n">
-        <v>178.141763849541</v>
+        <v>35.10352466476525</v>
       </c>
       <c r="M13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52441230575096</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="O13" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P13" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2193142604766</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="R13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="14">
@@ -28351,25 +28351,25 @@
         <v>178.141763849541</v>
       </c>
       <c r="K14" t="n">
-        <v>6.830009640380744</v>
+        <v>51.69478692170924</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9301914633259</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.141763849541</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R14" t="n">
         <v>178.141763849541</v>
@@ -28412,10 +28412,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>36.66262244153964</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>148.7446376404189</v>
@@ -28424,10 +28424,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423144</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>178.141763849541</v>
+        <v>66.51075616454615</v>
       </c>
       <c r="T15" t="n">
         <v>178.141763849541</v>
@@ -28466,7 +28466,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="W15" t="n">
-        <v>178.141763849541</v>
+        <v>78.21853850077437</v>
       </c>
       <c r="X15" t="n">
         <v>178.141763849541</v>
@@ -28485,43 +28485,43 @@
         <v>178.141763849541</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D16" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7008027322384</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H16" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="I16" t="n">
-        <v>164.8538042427314</v>
+        <v>178.141763849541</v>
       </c>
       <c r="J16" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K16" t="n">
+        <v>67.0332105846294</v>
+      </c>
+      <c r="L16" t="n">
+        <v>32.15595010613791</v>
+      </c>
+      <c r="M16" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="L16" t="n">
-        <v>32.15595010613789</v>
-      </c>
-      <c r="M16" t="n">
-        <v>25.22122397250157</v>
-      </c>
       <c r="N16" t="n">
-        <v>59.1728021340866</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O16" t="n">
-        <v>178.141763849541</v>
+        <v>68.88415919565855</v>
       </c>
       <c r="P16" t="n">
         <v>178.141763849541</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I17" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="J17" t="n">
-        <v>170.2914064957155</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103256</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>89.32381254073697</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P17" t="n">
-        <v>15.10088611163702</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2044759766083</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4519284452682</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S17" t="n">
         <v>227.518407079678</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="18">
@@ -28643,28 +28643,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>141.8951093472131</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423144</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7218599774646</v>
@@ -28697,7 +28697,7 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>48.7420266026114</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.4668133359732</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K19" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M19" t="n">
-        <v>25.22122397250157</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O19" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P19" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2193142604766</v>
@@ -28819,13 +28819,13 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4519284452682</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K20" t="n">
-        <v>43.79983408442096</v>
+        <v>147.5409855668246</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.10088611163702</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71843090037103</v>
+        <v>278.2044759766083</v>
       </c>
       <c r="R20" t="n">
         <v>297.4519284452682</v>
@@ -28855,7 +28855,7 @@
         <v>297.4519284452682</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4519284452682</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V20" t="n">
         <v>297.4519284452682</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446376404189</v>
+        <v>141.5495682571975</v>
       </c>
       <c r="H21" t="n">
         <v>125.7358448975026</v>
@@ -28901,7 +28901,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423144</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R21" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
-        <v>155.3832964665935</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T21" t="n">
         <v>214.9710572869065</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>78.21853850077437</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.82686936323339</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.8982410577884</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K22" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M22" t="n">
-        <v>25.22122397250157</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O22" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P22" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2193142604766</v>
@@ -29056,43 +29056,43 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I23" t="n">
-        <v>264.5831640809957</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K23" t="n">
-        <v>6.735077083103256</v>
+        <v>195.2211221593404</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.10088611163702</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71843090037103</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4519284452682</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4519284452682</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4519284452682</v>
+        <v>287.1129447992906</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4519284452682</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V23" t="n">
         <v>297.4519284452682</v>
@@ -29123,13 +29123,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H24" t="n">
         <v>125.7358448975026</v>
@@ -29138,7 +29138,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423144</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R24" t="n">
         <v>134.7218599774646</v>
@@ -29168,16 +29168,16 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066931</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280716788486</v>
+        <v>70.24166962382765</v>
       </c>
       <c r="V24" t="n">
-        <v>228.5643811319846</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.21853850077443</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29220,22 +29220,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K25" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M25" t="n">
-        <v>25.22122397250157</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O25" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P25" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2193142604766</v>
@@ -29351,31 +29351,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H27" t="n">
-        <v>13.63772191613504</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I27" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423144</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7218599774646</v>
+        <v>53.8654133383767</v>
       </c>
       <c r="S27" t="n">
         <v>191.5914073600452</v>
@@ -29411,7 +29411,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="V27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>213.488029352129</v>
@@ -29436,16 +29436,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>213.488029352129</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.488029352129</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>213.488029352129</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>186.571117776036</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H28" t="n">
         <v>165.824644867158</v>
@@ -29457,22 +29457,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K28" t="n">
-        <v>67.03321058462939</v>
+        <v>118.2498607574409</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15595010613789</v>
+        <v>213.488029352129</v>
       </c>
       <c r="M28" t="n">
-        <v>25.22122397250157</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O28" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P28" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2193142604766</v>
@@ -29594,25 +29594,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>60.7789820351953</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7358448975026</v>
+        <v>109.8664401179523</v>
       </c>
       <c r="I30" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423144</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5914073600452</v>
@@ -29645,7 +29645,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="U30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>213.488029352129</v>
@@ -29676,46 +29676,46 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>213.488029352129</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.488029352129</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H31" t="n">
         <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
+        <v>164.8538042427314</v>
+      </c>
+      <c r="J31" t="n">
+        <v>164.52349744166</v>
+      </c>
+      <c r="K31" t="n">
+        <v>67.03321058462942</v>
+      </c>
+      <c r="L31" t="n">
+        <v>32.15595010613792</v>
+      </c>
+      <c r="M31" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="J31" t="n">
-        <v>120.241573402485</v>
-      </c>
-      <c r="K31" t="n">
-        <v>67.03321058462939</v>
-      </c>
-      <c r="L31" t="n">
-        <v>32.15595010613789</v>
-      </c>
-      <c r="M31" t="n">
-        <v>25.22122397250157</v>
-      </c>
       <c r="N31" t="n">
-        <v>73.7829838766398</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O31" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P31" t="n">
-        <v>58.48196179900677</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R31" t="n">
-        <v>213.488029352129</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S31" t="n">
         <v>213.488029352129</v>
@@ -29770,7 +29770,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="J32" t="n">
-        <v>192.2835716884559</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="K32" t="n">
         <v>214.3979138113496</v>
@@ -29779,7 +29779,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.2835716884559</v>
       </c>
       <c r="N32" t="n">
         <v>214.3979138113496</v>
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>41.61488533988748</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.9920448761586</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446376404189</v>
@@ -29849,7 +29849,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423144</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R33" t="n">
         <v>134.7218599774646</v>
@@ -29888,10 +29888,10 @@
         <v>214.3979138113496</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3979138113496</v>
@@ -29904,19 +29904,19 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C34" t="n">
         <v>214.3979138113496</v>
       </c>
-      <c r="C34" t="n">
-        <v>207.5336014570752</v>
-      </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="E34" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="F34" t="n">
-        <v>214.3979138113496</v>
+        <v>175.0993310428175</v>
       </c>
       <c r="G34" t="n">
         <v>168.7008027322384</v>
@@ -29931,22 +29931,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
-        <v>67.03321058462939</v>
+        <v>67.03321058462942</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M34" t="n">
-        <v>25.22122397250157</v>
+        <v>25.2212239725016</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O34" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P34" t="n">
-        <v>58.48196179900677</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2193142604766</v>
@@ -30004,31 +30004,31 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I35" t="n">
-        <v>264.7552481611937</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J35" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="K35" t="n">
-        <v>267.196331940424</v>
+        <v>71.83443960393301</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2782666360717</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.793453227679</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>225.9054012444094</v>
       </c>
       <c r="P35" t="n">
-        <v>15.10088611163702</v>
+        <v>15.10088611163707</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71843090037103</v>
+        <v>89.71843090037109</v>
       </c>
       <c r="R35" t="n">
         <v>272.0590744345018</v>
@@ -30037,10 +30037,10 @@
         <v>227.518407079678</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V35" t="n">
         <v>272.0590744345018</v>
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>31.27309457949013</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,16 +30107,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280716788486</v>
@@ -30125,10 +30125,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>177.229228069291</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,22 +30168,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K37" t="n">
-        <v>67.03321058462939</v>
+        <v>67.03321058462942</v>
       </c>
       <c r="L37" t="n">
-        <v>67.71264504087752</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M37" t="n">
-        <v>25.22122397250157</v>
+        <v>25.2212239725016</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O37" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P37" t="n">
-        <v>58.48196179900677</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2193142604766</v>
@@ -30192,7 +30192,7 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S37" t="n">
-        <v>235.4385289329965</v>
+        <v>270.9952238677361</v>
       </c>
       <c r="T37" t="n">
         <v>223.761677253872</v>
@@ -30241,16 +30241,16 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0121589565495</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="J38" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1963319404239</v>
+        <v>6.735077083103306</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2782666360717</v>
+        <v>213.2782666360718</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30259,25 +30259,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>45.65161718756258</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.10088611163702</v>
+        <v>15.10088611163707</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71843090037103</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="R38" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="S38" t="n">
-        <v>227.518407079678</v>
+        <v>248.7422704415227</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505464515833</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V38" t="n">
         <v>272.0590744345018</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>33.96439651492834</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446376404189</v>
@@ -30323,7 +30323,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423144</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
@@ -30359,13 +30359,13 @@
         <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>72.64153789255195</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243328719690908</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>177.2328361469646</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30405,22 +30405,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K40" t="n">
-        <v>67.03321058462939</v>
+        <v>67.03321058462942</v>
       </c>
       <c r="L40" t="n">
-        <v>67.71264504087752</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M40" t="n">
-        <v>25.22122397250157</v>
+        <v>25.2212239725016</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O40" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P40" t="n">
-        <v>58.48196179900677</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2193142604766</v>
@@ -30487,16 +30487,16 @@
         <v>241.0121589565495</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>54.72513342713269</v>
       </c>
       <c r="M41" t="n">
-        <v>54.72513342713228</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>241.0121589565495</v>
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446376404189</v>
@@ -30560,7 +30560,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423144</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7218599774646</v>
+        <v>106.0152482472958</v>
       </c>
       <c r="S42" t="n">
         <v>191.5914073600452</v>
@@ -30593,19 +30593,19 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="X42" t="n">
-        <v>211.5469304037784</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30639,28 +30639,28 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J43" t="n">
-        <v>120.241573402485</v>
+        <v>223.3328945833273</v>
       </c>
       <c r="K43" t="n">
-        <v>67.03321058462939</v>
+        <v>67.03321058462942</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15595010613789</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250157</v>
+        <v>25.2212239725016</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575096</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O43" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P43" t="n">
-        <v>58.48196179900677</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q43" t="n">
-        <v>230.3106354413188</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R43" t="n">
         <v>203.4312113734075</v>
@@ -30724,22 +30724,22 @@
         <v>241.0121589565495</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="M44" t="n">
-        <v>54.72513342713228</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="N44" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>241.0121589565495</v>
+        <v>206.0188614833108</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.0121589565495</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R44" t="n">
         <v>241.0121589565495</v>
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9710572869065</v>
@@ -30836,10 +30836,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>35.28480267675297</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>20.58173655321937</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30852,16 +30852,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.0121589565495</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>170.2124844084901</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>162.2795205531789</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30918,7 +30918,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X46" t="n">
-        <v>241.0121589565495</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I11" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L11" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M11" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P11" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S11" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I12" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L12" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N12" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O12" t="n">
-        <v>51.76799648572084</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R12" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H13" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L13" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M13" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N13" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R13" t="n">
-        <v>8.201924628769309</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S13" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I14" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L14" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M14" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P14" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S14" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I15" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L15" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N15" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O15" t="n">
-        <v>51.76799648572084</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R15" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H16" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L16" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M16" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N16" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R16" t="n">
-        <v>8.201924628769309</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S16" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I17" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L17" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M17" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N17" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P17" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S17" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I18" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L18" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N18" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O18" t="n">
-        <v>51.76799648572084</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R18" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H19" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L19" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M19" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N19" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R19" t="n">
-        <v>8.201924628769309</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S19" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I20" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L20" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M20" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N20" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P20" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S20" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I21" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L21" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N21" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O21" t="n">
-        <v>51.76799648572084</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R21" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H22" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L22" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M22" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N22" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R22" t="n">
-        <v>8.201924628769309</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S22" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I23" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L23" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M23" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N23" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P23" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S23" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I24" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L24" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N24" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O24" t="n">
-        <v>51.76799648572084</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R24" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H25" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L25" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M25" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N25" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R25" t="n">
-        <v>8.201924628769309</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S25" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L26" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M26" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P26" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305773</v>
       </c>
       <c r="S26" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I27" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55660980881731</v>
+        <v>20.5566098088173</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L27" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O27" t="n">
-        <v>51.76799648572084</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R27" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065555</v>
       </c>
       <c r="H28" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281922</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19300379208891</v>
+        <v>21.1930037920889</v>
       </c>
       <c r="L28" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804554</v>
       </c>
       <c r="M28" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N28" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866439</v>
       </c>
       <c r="R28" t="n">
-        <v>8.201924628769309</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S28" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L29" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M29" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P29" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S29" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L30" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O30" t="n">
-        <v>51.76799648572084</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R30" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H31" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L31" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M31" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N31" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R31" t="n">
-        <v>8.201924628769309</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S31" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H32" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L32" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M32" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N32" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P32" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S32" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I33" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L33" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N33" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O33" t="n">
-        <v>51.76799648572084</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R33" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S33" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H34" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L34" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M34" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N34" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R34" t="n">
-        <v>8.201924628769309</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H35" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L35" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M35" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N35" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P35" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S35" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I36" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L36" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N36" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O36" t="n">
-        <v>51.76799648572084</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R36" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S36" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H37" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L37" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M37" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N37" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R37" t="n">
-        <v>8.201924628769309</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S37" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H38" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L38" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M38" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N38" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P38" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S38" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I39" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L39" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N39" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O39" t="n">
-        <v>51.76799648572084</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R39" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S39" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H40" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L40" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M40" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N40" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R40" t="n">
-        <v>8.201924628769309</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S40" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4066571452937373</v>
+        <v>0.4066571452937369</v>
       </c>
       <c r="H41" t="n">
-        <v>4.164677489239488</v>
+        <v>4.164677489239484</v>
       </c>
       <c r="I41" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51451688537436</v>
+        <v>34.51451688537433</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565827</v>
+        <v>51.72831384565822</v>
       </c>
       <c r="L41" t="n">
-        <v>64.1735474559415</v>
+        <v>64.17354745594143</v>
       </c>
       <c r="M41" t="n">
-        <v>71.405436463559</v>
+        <v>71.40543646355893</v>
       </c>
       <c r="N41" t="n">
-        <v>72.56085107762483</v>
+        <v>72.56085107762476</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911022</v>
+        <v>68.51715408911016</v>
       </c>
       <c r="P41" t="n">
-        <v>58.47780581467108</v>
+        <v>58.47780581467102</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.9143967988391</v>
+        <v>43.91439679883906</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54467690305774</v>
+        <v>25.54467690305772</v>
       </c>
       <c r="S41" t="n">
-        <v>9.266699698381046</v>
+        <v>9.266699698381037</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523334</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253257162349897</v>
+        <v>0.03253257162349894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729651</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I42" t="n">
-        <v>7.491267211327974</v>
+        <v>7.491267211327967</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55660980881731</v>
+        <v>20.55660980881729</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13452037190599</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L42" t="n">
-        <v>47.2426985091454</v>
+        <v>47.24269850914535</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604033</v>
       </c>
       <c r="N42" t="n">
-        <v>56.58912794452707</v>
+        <v>56.58912794452701</v>
       </c>
       <c r="O42" t="n">
-        <v>51.76799648572084</v>
+        <v>51.76799648572079</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698055</v>
+        <v>41.54838112698051</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77399247369291</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R42" t="n">
-        <v>13.50909282083552</v>
+        <v>13.50909282083551</v>
       </c>
       <c r="S42" t="n">
-        <v>4.04146708789477</v>
+        <v>4.041467087894766</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8770031295809433</v>
+        <v>0.8770031295809425</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374771</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824123957065556</v>
+        <v>0.1824123957065554</v>
       </c>
       <c r="H43" t="n">
-        <v>1.621812027281923</v>
+        <v>1.621812027281921</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248051</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19300379208891</v>
+        <v>21.19300379208889</v>
       </c>
       <c r="L43" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804553</v>
       </c>
       <c r="M43" t="n">
-        <v>28.5939721742558</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N43" t="n">
-        <v>27.9140714266223</v>
+        <v>27.91407142662227</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586841</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06195011345468</v>
+        <v>22.06195011345466</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.2745506986644</v>
+        <v>15.27455069866438</v>
       </c>
       <c r="R43" t="n">
-        <v>8.201924628769309</v>
+        <v>8.2019246287693</v>
       </c>
       <c r="S43" t="n">
-        <v>3.178950568813336</v>
+        <v>3.178950568813333</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7793984180189193</v>
+        <v>0.7793984180189185</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539409</v>
+        <v>0.009949767038539399</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.1678556611008975</v>
       </c>
       <c r="M9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1678556611008989</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
         <v>3.516869431124803</v>
@@ -35410,25 +35410,25 @@
         <v>101.3548838438619</v>
       </c>
       <c r="K11" t="n">
-        <v>21.8327534401932</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4860450762373</v>
+        <v>135.7012537276964</v>
       </c>
       <c r="M11" t="n">
-        <v>81.66780162964176</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N11" t="n">
-        <v>76.07772050874964</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.040877737904</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.42333294917</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L12" t="n">
         <v>118.5108989343404</v>
@@ -35504,7 +35504,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,46 +35547,46 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.95911359883036</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.21488163109439</v>
+        <v>39.21488163109441</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.31711898238311</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90019044705602</v>
       </c>
       <c r="K13" t="n">
-        <v>53.01818292581424</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9858137434031</v>
+        <v>2.947574558627343</v>
       </c>
       <c r="M13" t="n">
         <v>152.9205398770395</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.6173515437901</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6598020505343</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.92244958906447</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3548838438619</v>
+        <v>101.3548838438618</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09493255727748688</v>
+        <v>44.95970983860595</v>
       </c>
       <c r="L14" t="n">
-        <v>47.18298822124893</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M14" t="n">
-        <v>81.66780162964176</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="N14" t="n">
-        <v>76.07772050874964</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O14" t="n">
-        <v>188.4860450762373</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P14" t="n">
-        <v>163.040877737904</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294917</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L15" t="n">
         <v>118.5108989343404</v>
@@ -35735,13 +35735,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O15" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,52 +35778,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5248431845729442</v>
+        <v>0.5248431845728874</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.68458287756863</v>
       </c>
       <c r="D16" t="n">
-        <v>32.95911359883033</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.46562263731599</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.21488163109433</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.440961117302569</v>
       </c>
       <c r="H16" t="n">
-        <v>12.31711898238308</v>
+        <v>12.31711898238303</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.28795960680961</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1085532649116</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9205398770394</v>
       </c>
       <c r="N16" t="n">
-        <v>42.64838982833565</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292531</v>
+        <v>31.40134507537063</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505343</v>
+        <v>119.6598020505342</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.92244958906446</v>
+        <v>50.92244958906439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,40 +35881,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>93.50452649003635</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124893</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M17" t="n">
-        <v>81.66780162964176</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874964</v>
+        <v>165.4015330494865</v>
       </c>
       <c r="O17" t="n">
-        <v>34.55585361291139</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880344</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U17" t="n">
-        <v>47.30138199368485</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L18" t="n">
         <v>118.5108989343404</v>
@@ -35972,13 +35972,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871867</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>37.0647570013177</v>
+        <v>140.8059084837213</v>
       </c>
       <c r="L20" t="n">
-        <v>47.18298822124893</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M20" t="n">
-        <v>81.66780162964176</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874964</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O20" t="n">
-        <v>34.55585361291139</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="R20" t="n">
         <v>102.5664892927773</v>
@@ -36151,7 +36151,7 @@
         <v>74.98577569880344</v>
       </c>
       <c r="U20" t="n">
-        <v>47.30138199368485</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L21" t="n">
         <v>118.5108989343404</v>
@@ -36209,13 +36209,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,25 +36352,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>23.57100512444621</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="L23" t="n">
-        <v>47.18298822124893</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964176</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874964</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55585361291139</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.9335213655902</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98577569880344</v>
+        <v>64.64679205282596</v>
       </c>
       <c r="U23" t="n">
-        <v>47.30138199368485</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L24" t="n">
         <v>118.5108989343404</v>
@@ -36452,7 +36452,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7529522690258</v>
+        <v>206.7529522690257</v>
       </c>
       <c r="L26" t="n">
-        <v>260.671017573378</v>
+        <v>260.6710175733779</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1558309817708</v>
+        <v>295.1558309817707</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5657498608787</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0438829650404</v>
+        <v>248.0438829650403</v>
       </c>
       <c r="P26" t="n">
-        <v>198.387143240492</v>
+        <v>198.3871432404919</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.769598451758</v>
+        <v>123.7695984517579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.6025901996382</v>
+        <v>18.60259019963817</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L27" t="n">
         <v>118.5108989343404</v>
@@ -36683,13 +36683,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O27" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017692</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,16 +36732,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.30537910141831</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.81188813990403</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>74.56114713368237</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.87031504379764</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>51.21665017281152</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.3320792459911</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>198.387143240492</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.769598451758</v>
+        <v>123.7695984517579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963818</v>
+        <v>18.60259019963819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L30" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M30" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36972,22 +36972,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.811888139904</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.78722661989058</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63422510939763</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>44.28192403917493</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.2668053796274</v>
       </c>
       <c r="N31" t="n">
-        <v>57.25857157088884</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05681797872153</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>115.4966916827767</v>
+        <v>137.6110338056705</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282464</v>
+        <v>207.6628367282463</v>
       </c>
       <c r="L32" t="n">
         <v>261.5809020325985</v>
       </c>
       <c r="M32" t="n">
-        <v>296.0657154409914</v>
+        <v>273.9513733180976</v>
       </c>
       <c r="N32" t="n">
         <v>290.4756343200992</v>
@@ -37087,10 +37087,10 @@
         <v>199.2970276997126</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6794829109786</v>
+        <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>19.5124746588588</v>
+        <v>19.51247465885881</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L33" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M33" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,19 +37200,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.78099314638152</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41.07642048510289</v>
+        <v>47.94073283937729</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.21526356063893</v>
       </c>
       <c r="E34" t="n">
-        <v>72.72177259912462</v>
+        <v>72.72177259912465</v>
       </c>
       <c r="F34" t="n">
-        <v>75.47103159290296</v>
+        <v>36.17244882437089</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37300,26 +37300,26 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>23.74308920464417</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>195.2721944288227</v>
       </c>
       <c r="K35" t="n">
+        <v>65.0993625208297</v>
+      </c>
+      <c r="L35" t="n">
+        <v>47.18298822124886</v>
+      </c>
+      <c r="M35" t="n">
         <v>260.4612548573207</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
+        <v>76.07772050874956</v>
+      </c>
+      <c r="O35" t="n">
         <v>260.4612548573207</v>
       </c>
-      <c r="M35" t="n">
-        <v>81.66780162964176</v>
-      </c>
-      <c r="N35" t="n">
-        <v>76.07772050874964</v>
-      </c>
-      <c r="O35" t="n">
-        <v>34.55585361291139</v>
-      </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
@@ -37327,16 +37327,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17363528201103</v>
+        <v>77.17363528201101</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59292168803713</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90852798291854</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L36" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M36" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,28 +37467,28 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>35.55669493473962</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04691547795234</v>
       </c>
       <c r="J38" t="n">
         <v>195.2721944288227</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4612548573207</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>260.4612548573207</v>
       </c>
       <c r="M38" t="n">
-        <v>81.66780162964176</v>
+        <v>81.66780162964169</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874964</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O38" t="n">
-        <v>80.20747080047397</v>
+        <v>34.55585361291133</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3406435341307</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17363528201103</v>
+        <v>77.17363528201101</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>21.2238633618447</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59292168803713</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90852798291854</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L39" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M39" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>35.55669493473962</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>234.2770818734462</v>
       </c>
       <c r="L41" t="n">
-        <v>47.18298822124893</v>
+        <v>101.9081216483816</v>
       </c>
       <c r="M41" t="n">
-        <v>136.392935056774</v>
+        <v>81.66780162964169</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O41" t="n">
-        <v>34.55585361291139</v>
+        <v>275.5680125694608</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449125</v>
+        <v>225.9112728449124</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2937280561785</v>
+        <v>151.2937280561784</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12671980405868</v>
+        <v>46.12671980405865</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49375187687153</v>
+        <v>13.49375187687152</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54600621008478</v>
+        <v>18.54600621008477</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L42" t="n">
         <v>118.5108989343404</v>
       </c>
       <c r="M42" t="n">
-        <v>183.503360791178</v>
+        <v>183.5033607911779</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0233611548194</v>
+        <v>133.0233611548193</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017689</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>103.0913211808422</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.0913211808422</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>234.2770818734462</v>
       </c>
       <c r="L44" t="n">
-        <v>47.18298822124893</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M44" t="n">
-        <v>136.392935056774</v>
+        <v>322.6799605861912</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874964</v>
       </c>
       <c r="O44" t="n">
         <v>34.55585361291139</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9112728449125</v>
+        <v>190.9179753716738</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2937280561785</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.12671980405868</v>
@@ -38148,16 +38148,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.39523829158139</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.755303436517724</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>20.60337934095386</v>
+        <v>99.33601774432449</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.09270354830696</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
